--- a/case 3/storage&modifiers.xlsx
+++ b/case 3/storage&modifiers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -49,24 +49,9 @@
     <t>unsigned=12</t>
   </si>
   <si>
-    <t>double=9.6</t>
-  </si>
-  <si>
-    <t>register=12</t>
-  </si>
-  <si>
-    <t>static=53 size=4</t>
-  </si>
-  <si>
     <t>register=5 size=4</t>
   </si>
   <si>
-    <t>register=12 size=4</t>
-  </si>
-  <si>
-    <t>auto=NEW  type=PKc</t>
-  </si>
-  <si>
     <t>double=2.3 size=16</t>
   </si>
   <si>
@@ -76,22 +61,55 @@
     <t>second global=100 size=4</t>
   </si>
   <si>
-    <t>static=47 size=4</t>
-  </si>
-  <si>
-    <t>auto=NEW type=PKc</t>
-  </si>
-  <si>
-    <t>double=9.6 size=16</t>
-  </si>
-  <si>
-    <t>global in function=12 size=4</t>
-  </si>
-  <si>
-    <t>second global in function=-96 size=4</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>welcome to hcl</t>
+  </si>
+  <si>
+    <t>static=1</t>
+  </si>
+  <si>
+    <t>non-static=1</t>
+  </si>
+  <si>
+    <t>short int=2</t>
+  </si>
+  <si>
+    <t>global variables outside function 96,100</t>
+  </si>
+  <si>
+    <t>static=2</t>
+  </si>
+  <si>
+    <t>non static=1</t>
+  </si>
+  <si>
+    <t>extern iX=10</t>
+  </si>
+  <si>
+    <t>iX=10</t>
+  </si>
+  <si>
+    <t>static=3</t>
+  </si>
+  <si>
+    <t>with neg value for unsigned variable</t>
+  </si>
+  <si>
+    <t>register=15</t>
+  </si>
+  <si>
+    <t>double=5.3</t>
+  </si>
+  <si>
+    <t>unsigned=-9687</t>
+  </si>
+  <si>
+    <t>global variables in function 12,-96</t>
+  </si>
+  <si>
+    <t>global variables in function garbage,-96</t>
   </si>
 </sst>
 </file>
@@ -137,9 +155,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,8 +471,8 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -481,7 +497,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -490,24 +506,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -516,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -528,79 +542,81 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -613,10 +629,164 @@
       </c>
       <c r="F13" s="2"/>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:F13"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>